--- a/results/manual_perceptron_wyniki_regression_our_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_regression_our_train_test.xlsx
@@ -513,25 +513,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>6.08275789196877</v>
+        <v>6.034911893646684</v>
       </c>
       <c r="H2" t="n">
-        <v>1.274806416839162</v>
+        <v>1.260742727960416</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6923046423267847</v>
+        <v>0.6967143704513348</v>
       </c>
       <c r="J2" t="n">
-        <v>5.646058522378143</v>
+        <v>5.576045580850471</v>
       </c>
       <c r="K2" t="n">
-        <v>1.149628421859797</v>
+        <v>1.152518342691775</v>
       </c>
       <c r="L2" t="n">
-        <v>0.636659988312936</v>
+        <v>0.6411655213130075</v>
       </c>
     </row>
     <row r="3">
@@ -551,25 +551,25 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>15.33233178838855</v>
+        <v>15.33233112135983</v>
       </c>
       <c r="H3" t="n">
-        <v>2.852511284281525</v>
+        <v>2.85251103050599</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04427051752334756</v>
+        <v>-0.04427044694016277</v>
       </c>
       <c r="J3" t="n">
-        <v>15.59778487185683</v>
+        <v>15.59778505707405</v>
       </c>
       <c r="K3" t="n">
-        <v>2.919022823339629</v>
+        <v>2.919022838948616</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003762060766894448</v>
+        <v>-0.003762072686152251</v>
       </c>
     </row>
     <row r="4">
@@ -665,25 +665,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.074683121294035</v>
+        <v>6.036533277025205</v>
       </c>
       <c r="H6" t="n">
-        <v>1.273532196059615</v>
+        <v>1.261089750227523</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6931057150126072</v>
+        <v>0.6965707278035985</v>
       </c>
       <c r="J6" t="n">
-        <v>5.547330474486615</v>
+        <v>5.574761396599162</v>
       </c>
       <c r="K6" t="n">
-        <v>1.147050258564089</v>
+        <v>1.152033419082277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6430134205227813</v>
+        <v>0.6412481622419015</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>15.33233055606519</v>
+        <v>15.33233178838855</v>
       </c>
       <c r="H7" t="n">
-        <v>2.852511001638523</v>
+        <v>2.852511284281525</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04427048101697106</v>
+        <v>-0.04427051752334756</v>
       </c>
       <c r="J7" t="n">
-        <v>15.59778410765069</v>
+        <v>15.59778487185683</v>
       </c>
       <c r="K7" t="n">
-        <v>2.919022476033962</v>
+        <v>2.919022823339629</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.003762011588043679</v>
+        <v>-0.003762060766894448</v>
       </c>
     </row>
     <row r="8">
@@ -820,22 +820,22 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6.083612414414356</v>
+        <v>5.998699400590995</v>
       </c>
       <c r="H10" t="n">
-        <v>1.27424317109745</v>
+        <v>1.251035597464639</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6925626805009302</v>
+        <v>0.6997245907705518</v>
       </c>
       <c r="J10" t="n">
-        <v>5.644837198191078</v>
+        <v>5.572937334661249</v>
       </c>
       <c r="K10" t="n">
-        <v>1.149276763156696</v>
+        <v>1.154156362822428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6367385840169378</v>
+        <v>0.6413655458437917</v>
       </c>
     </row>
     <row r="11">
@@ -969,25 +969,25 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>5.989305269908821</v>
+        <v>5.991180254817777</v>
       </c>
       <c r="H14" t="n">
-        <v>1.251186037782129</v>
+        <v>1.257993208505736</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7005105443610742</v>
+        <v>0.6987746383186451</v>
       </c>
       <c r="J14" t="n">
-        <v>5.557156490846672</v>
+        <v>5.648892797943682</v>
       </c>
       <c r="K14" t="n">
-        <v>1.148122248889708</v>
+        <v>1.161374494265071</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6423810882710077</v>
+        <v>0.636477594575247</v>
       </c>
     </row>
     <row r="15">
@@ -1085,24 +1085,12 @@
       <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
-        <v>15.56431408737492</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.877139690034513</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-0.06296973294801797</v>
-      </c>
-      <c r="J17" t="n">
-        <v>15.79347292433493</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.929714043015833</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-0.01635514654391979</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1121,25 +1109,25 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>6.842775515238896</v>
+        <v>5.92436658026508</v>
       </c>
       <c r="H18" t="n">
-        <v>1.457734894878018</v>
+        <v>1.226541079881073</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6254226731679842</v>
+        <v>0.7043549077367173</v>
       </c>
       <c r="J18" t="n">
-        <v>5.800795471302693</v>
+        <v>5.545817679759002</v>
       </c>
       <c r="K18" t="n">
-        <v>1.239855511865269</v>
+        <v>1.132738592936293</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6267022231555558</v>
+        <v>0.6431107731895722</v>
       </c>
     </row>
     <row r="19">
@@ -1313,12 +1301,24 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>15.33233178838855</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.852511284281525</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.04427051752334756</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15.59778487185683</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.919022823339629</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.003762060766894448</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1337,25 +1337,25 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>15.39296244513078</v>
+        <v>15.39296244682352</v>
       </c>
       <c r="H24" t="n">
-        <v>2.857763250069007</v>
+        <v>2.857763250666127</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.04920771527652897</v>
+        <v>-0.04920771538606853</v>
       </c>
       <c r="J24" t="n">
-        <v>15.69996895866312</v>
+        <v>15.69996895862018</v>
       </c>
       <c r="K24" t="n">
-        <v>2.925503236368101</v>
+        <v>2.925503236365918</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01033789896397885</v>
+        <v>-0.01033789896121529</v>
       </c>
     </row>
     <row r="25">
@@ -1413,25 +1413,25 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>15.28471855471552</v>
+        <v>6.208436742620714</v>
       </c>
       <c r="H26" t="n">
-        <v>2.84999125553834</v>
+        <v>1.323860756119821</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.04035014186294812</v>
+        <v>0.6810690586579142</v>
       </c>
       <c r="J26" t="n">
-        <v>15.54063553121611</v>
+        <v>5.68355970951009</v>
       </c>
       <c r="K26" t="n">
-        <v>2.910644818451687</v>
+        <v>1.176791008451846</v>
       </c>
       <c r="L26" t="n">
-        <v>-8.433726934153896e-05</v>
+        <v>0.6342466796805875</v>
       </c>
     </row>
     <row r="27">
@@ -1543,24 +1543,12 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
-        <v>15.28321487254952</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.849883937596879</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-0.04028379965811846</v>
-      </c>
-      <c r="J30" t="n">
-        <v>15.53726356827479</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.910419538179728</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.0001326581885784384</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1811,12 +1799,24 @@
       <c r="F38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>15.28471859857077</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.849991329142521</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.04035014396027026</v>
+      </c>
+      <c r="J38" t="n">
+        <v>15.54063552726344</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.910644816226905</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-8.433701497589929e-05</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1837,24 +1837,12 @@
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>15.33233178838855</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.852511284281525</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-0.04427051752334756</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15.59778487185683</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.919022823339629</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.003762060766894448</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1951,24 +1939,12 @@
       <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="n">
-        <v>15.28471859857077</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.849991329142521</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-0.04035014396027026</v>
-      </c>
-      <c r="J42" t="n">
-        <v>15.54063552726344</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.910644816226905</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-8.433701497589929e-05</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2015,12 +1991,24 @@
       <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>15.39296244682352</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.857763250666127</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.04920771538606853</v>
+      </c>
+      <c r="J44" t="n">
+        <v>15.69996895862018</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.925503236365918</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.01033789896121529</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2285,12 +2273,24 @@
       <c r="F53" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>15.56431408737492</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.877139690034513</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.06296973294801797</v>
+      </c>
+      <c r="J53" t="n">
+        <v>15.79347292433493</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.929714043015833</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.01635514654391979</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2387,24 +2387,12 @@
       <c r="F56" t="n">
         <v>1</v>
       </c>
-      <c r="G56" t="n">
-        <v>15.39296244682352</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2.857763250666127</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-0.04920771538606853</v>
-      </c>
-      <c r="J56" t="n">
-        <v>15.69996895862018</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.925503236365918</v>
-      </c>
-      <c r="L56" t="n">
-        <v>-0.01033789896121529</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2425,24 +2413,12 @@
       <c r="F57" t="n">
         <v>1</v>
       </c>
-      <c r="G57" t="n">
-        <v>15.56431408737492</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.877139690034513</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-0.06296973294801797</v>
-      </c>
-      <c r="J57" t="n">
-        <v>15.79347292433493</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2.929714043015833</v>
-      </c>
-      <c r="L57" t="n">
-        <v>-0.01635514654391979</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2541,24 +2517,12 @@
       <c r="F61" t="n">
         <v>1</v>
       </c>
-      <c r="G61" t="n">
-        <v>15.56431408737492</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2.877139690034513</v>
-      </c>
-      <c r="I61" t="n">
-        <v>-0.06296973294801797</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15.79347292433493</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.929714043015833</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-0.01635514654391979</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2703,7 +2667,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 12:22:22</t>
+          <t>2025-11-15 22:03:36</t>
         </is>
       </c>
     </row>
